--- a/データ構造.xlsx
+++ b/データ構造.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>列名</t>
   </si>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>verchar2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -199,13 +195,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>レス日時</t>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>レス内容(本文)</t>
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
@@ -247,6 +236,35 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ナナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レス日時(秒まで)</t>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ビョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -854,7 +872,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -894,7 +912,7 @@
     <row r="2" spans="1:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="5"/>
@@ -906,62 +924,62 @@
     </row>
     <row r="4" spans="1:8" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C4" s="11">
         <v>6</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C5" s="9">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="18">
         <v>1024</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -979,24 +997,24 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C9" s="11">
         <v>6</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1004,19 +1022,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9">
         <v>15</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1024,19 +1042,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9">
         <v>64</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1044,23 +1062,23 @@
         <v>10</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1072,24 +1090,24 @@
     </row>
     <row r="15" spans="1:8" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C15" s="11">
         <v>6</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1097,21 +1115,21 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C16" s="9">
         <v>15</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1119,41 +1137,41 @@
         <v>12</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C17" s="9">
         <v>6</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
       <c r="H17" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="9">
         <v>4</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1161,19 +1179,19 @@
         <v>13</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C19" s="9">
         <v>32</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1181,37 +1199,37 @@
         <v>14</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="15" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C21" s="23">
         <v>1024</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
